--- a/src/main/resources/excel/finished/6高炉/高炉本体温度日报表.xlsx
+++ b/src/main/resources/excel/finished/6高炉/高炉本体温度日报表.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="高炉本体温度" sheetId="1" r:id="rId1"/>
-    <sheet name="_dictionary" sheetId="3" r:id="rId2"/>
-    <sheet name="_tag_day_all" sheetId="2" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="_tag_day_all" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="689">
   <si>
     <t>高炉本体温度日报表</t>
   </si>
@@ -1083,996 +1083,6 @@
   </si>
   <si>
     <t>点名</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04325_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04326_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04327_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04328_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04329_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04330_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04319_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04320_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04321_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04322_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04323_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04324_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04310_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04311_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04312_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04313_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04314_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04315_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04316_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04317_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04318_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04077_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04078_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04079_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04080_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04081_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04082_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04083_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04084_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04085_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04086_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04087_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04088_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04089_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04090_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04091_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04092_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04093_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04094_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04095_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04096_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04097_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04098_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04099_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04100_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04101_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04102_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04103_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04104_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04105_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04106_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04107_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04108_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04109_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04110_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04111_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04112_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04113_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04114_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04115_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04116_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04117_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04118_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04119_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04120_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04121_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04122_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04123_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04124_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04125_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04126_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04127_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04128_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04129_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04130_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04131_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04132_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04133_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04134_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04135_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04136_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04137_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04138_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04139_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04140_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04141_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04142_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04143_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04144_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04145_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04146_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04147_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04148_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04149_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04150_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04151_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04152_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04153_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04154_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04155_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04156_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04157_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04158_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04159_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04160_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04161_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04162_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04163_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04164_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04165_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04166_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04167_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04168_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04169_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04170_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04171_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04172_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04173_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04174_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04175_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04176_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04177_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04178_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04179_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04180_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04181_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04182_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04183_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04184_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04185_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04186_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04187_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04188_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04189_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04190_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04191_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04192_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04193_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04194_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04195_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04196_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04197_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04198_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04199_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04200_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04201_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04202_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04203_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04204_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04205_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04206_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04207_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04208_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04209_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04210_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04211_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04212_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04213_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04214_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04215_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04216_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04217_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04218_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04219_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04220_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04221_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04222_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04223_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04224_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04225_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04226_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04227_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04228_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04229_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04230_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04231_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04232_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04233_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04234_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04235_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04236_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04237_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04238_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04239_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04240_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04241_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04242_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04243_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04244_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04245_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04246_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04247_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04248_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04249_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04250_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04251_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04252_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04253_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04254_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04255_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04256_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04257_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04258_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04259_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04260_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04261_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04262_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04263_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04264_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04265_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04266_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04267_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04268_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04269_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04270_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04271_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04272_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04273_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04274_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04275_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04276_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04277_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04278_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04279_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04280_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04281_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04282_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04283_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04284_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04285_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04286_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04287_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04288_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04289_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04290_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04291_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04292_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04293_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04294_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04295_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04296_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04297_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04298_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04299_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04300_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04301_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04302_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04303_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04304_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04305_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04306_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04307_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04308_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04309_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04001_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04002_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04003_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04004_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04005_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04006_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04007_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04008_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04009_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04010_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04011_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04012_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04013_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04014_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04015_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04016_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04017_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04018_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04019_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04020_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04021_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04022_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04023_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04024_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04025_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04026_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04027_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04028_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04029_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04030_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04031_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04032_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04033_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04034_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04035_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04036_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04037_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04038_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04039_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04040_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04041_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04042_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04043_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04044_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04045_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04046_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04047_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04048_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04049_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04050_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04051_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04052_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04053_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04054_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04055_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04056_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04057_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04058_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04059_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04060_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04061_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04062_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04063_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04064_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04065_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04066_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04067_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04068_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04069_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04070_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04071_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04072_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04073_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04074_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04075_1m_avg</t>
-  </si>
-  <si>
-    <t>BF6_L2C_BD_TE04076_1m_avg</t>
   </si>
   <si>
     <t>夜班</t>
@@ -3733,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LS34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6480,994 +5490,994 @@
         <v>353</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AY6" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="BA6" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="CH6" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="CI6" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="CJ6" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="CK6" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="CM6" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="CN6" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="CO6" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="CP6" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="CS6" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="CV6" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="CW6" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="CX6" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="CY6" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="CZ6" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="DB6" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="DC6" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="DD6" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="DF6" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="DH6" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="DI6" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="DK6" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="DL6" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="DM6" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="DN6" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="DO6" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="DP6" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="DQ6" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="DR6" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="DS6" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="DT6" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="DU6" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="DV6" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="DW6" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="DX6" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="DY6" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="DZ6" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="EA6" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="EB6" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="EC6" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="ED6" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="EE6" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="EF6" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="EG6" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="EH6" s="3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="EI6" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="EJ6" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="EK6" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="EL6" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="EM6" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="EN6" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="EO6" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="EP6" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="EQ6" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="ER6" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="ES6" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="ET6" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="EU6" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="EV6" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="EW6" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="EX6" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="EY6" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="EZ6" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="FA6" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="FB6" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="FC6" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="FD6" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="FE6" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="FF6" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="FG6" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="FH6" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="FI6" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="FJ6" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="FK6" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="FL6" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="FM6" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="FN6" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="FO6" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="FP6" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="FQ6" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="FR6" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="FS6" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="FT6" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="FU6" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="FV6" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="FW6" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="FX6" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="FY6" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="FZ6" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="GA6" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="GB6" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="GC6" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="GD6" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="GE6" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="GF6" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="GG6" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="GH6" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="GI6" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="GJ6" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="GK6" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="GL6" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="GM6" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="GN6" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="GO6" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="GP6" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="GQ6" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="GR6" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="GS6" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="GT6" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="GU6" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="GV6" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="GW6" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="GX6" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="GY6" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="GZ6" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="HA6" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="HB6" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="HC6" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="HD6" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="HE6" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="HF6" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="HG6" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="HH6" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="HI6" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="HJ6" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="HK6" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="HL6" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="HM6" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="HN6" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="HO6" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="HP6" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="HQ6" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="HR6" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="HS6" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="HT6" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="HU6" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="HV6" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="HW6" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="HX6" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="HY6" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="HZ6" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="IA6" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="IB6" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="IC6" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="ID6" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="IE6" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="IF6" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="IG6" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="IH6" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="II6" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="IJ6" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="IK6" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="IL6" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="IM6" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="IN6" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="IO6" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="IP6" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="IQ6" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="IR6" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="IS6" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="IT6" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="IU6" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="IV6" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="IW6" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="IX6" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="IY6" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="IZ6" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="JA6" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="JB6" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="JC6" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="JD6" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="JE6" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="JF6" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="JG6" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="JH6" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="JI6" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="JJ6" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="JK6" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="JL6" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="JM6" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="JN6" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="JO6" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="JP6" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="JQ6" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="JR6" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="JS6" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="JT6" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="JU6" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="JV6" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="JW6" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="JX6" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="JY6" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="JZ6" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="KA6" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="KB6" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="KC6" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="KD6" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="KE6" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="KF6" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="KG6" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="KH6" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="KI6" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="KJ6" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="KK6" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="KL6" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="KM6" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="KN6" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="KO6" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="KP6" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="KQ6" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="KR6" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="KS6" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="KT6" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="KU6" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="KV6" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="KW6" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="KX6" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="KY6" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="KZ6" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="LA6" s="1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="LB6" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="LC6" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="LD6" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="LE6" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="LF6" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="LG6" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="LH6" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="LI6" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="LJ6" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="LK6" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="LL6" s="1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="LM6" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="LN6" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="LO6" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="LP6" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="LQ6" s="1" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="LR6" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="LS6" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.15">
@@ -39272,7 +38282,7 @@
     </row>
     <row r="31" spans="1:331" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>684</v>
+        <v>354</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -39607,7 +38617,7 @@
     </row>
     <row r="32" spans="1:331" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>685</v>
+        <v>355</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -39942,7 +38952,7 @@
     </row>
     <row r="33" spans="1:331" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>686</v>
+        <v>356</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -40277,7 +39287,7 @@
     </row>
     <row r="34" spans="1:331" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>687</v>
+        <v>357</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -40648,7 +39658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -40656,7 +39666,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1018</v>
+        <v>688</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -40672,1002 +39682,1002 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LR1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="KU1" workbookViewId="0">
+      <selection sqref="A1:LR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:330" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>688</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>689</v>
+        <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>690</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>691</v>
+        <v>361</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>692</v>
+        <v>362</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>693</v>
+        <v>363</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>694</v>
+        <v>364</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>695</v>
+        <v>365</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>696</v>
+        <v>366</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>697</v>
+        <v>367</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>698</v>
+        <v>368</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>699</v>
+        <v>369</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>701</v>
+        <v>371</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>702</v>
+        <v>372</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>703</v>
+        <v>373</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>704</v>
+        <v>374</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>705</v>
+        <v>375</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>706</v>
+        <v>376</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>707</v>
+        <v>377</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>708</v>
+        <v>378</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>709</v>
+        <v>379</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>710</v>
+        <v>380</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>711</v>
+        <v>381</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>712</v>
+        <v>382</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>713</v>
+        <v>383</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>714</v>
+        <v>384</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>715</v>
+        <v>385</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>716</v>
+        <v>386</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>717</v>
+        <v>387</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>718</v>
+        <v>388</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>719</v>
+        <v>389</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>720</v>
+        <v>390</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>721</v>
+        <v>391</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>722</v>
+        <v>392</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>723</v>
+        <v>393</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>724</v>
+        <v>394</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>725</v>
+        <v>395</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>726</v>
+        <v>396</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>727</v>
+        <v>397</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>728</v>
+        <v>398</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>729</v>
+        <v>399</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>730</v>
+        <v>400</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>731</v>
+        <v>401</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>732</v>
+        <v>402</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>733</v>
+        <v>403</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>734</v>
+        <v>404</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>735</v>
+        <v>405</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>736</v>
+        <v>406</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>737</v>
+        <v>407</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>738</v>
+        <v>408</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>739</v>
+        <v>409</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>740</v>
+        <v>410</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>741</v>
+        <v>411</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>742</v>
+        <v>412</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>743</v>
+        <v>413</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>744</v>
+        <v>414</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>745</v>
+        <v>415</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>746</v>
+        <v>416</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>747</v>
+        <v>417</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>748</v>
+        <v>418</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>749</v>
+        <v>419</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>750</v>
+        <v>420</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>751</v>
+        <v>421</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>752</v>
+        <v>422</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>753</v>
+        <v>423</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>754</v>
+        <v>424</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>755</v>
+        <v>425</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>756</v>
+        <v>426</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>757</v>
+        <v>427</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>758</v>
+        <v>428</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>759</v>
+        <v>429</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>760</v>
+        <v>430</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>761</v>
+        <v>431</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>762</v>
+        <v>432</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>763</v>
+        <v>433</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>764</v>
+        <v>434</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>765</v>
+        <v>435</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>766</v>
+        <v>436</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>767</v>
+        <v>437</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>768</v>
+        <v>438</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>769</v>
+        <v>439</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>770</v>
+        <v>440</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>771</v>
+        <v>441</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>772</v>
+        <v>442</v>
       </c>
       <c r="CH1" s="2" t="s">
-        <v>773</v>
+        <v>443</v>
       </c>
       <c r="CI1" s="2" t="s">
-        <v>774</v>
+        <v>444</v>
       </c>
       <c r="CJ1" s="2" t="s">
-        <v>775</v>
+        <v>445</v>
       </c>
       <c r="CK1" s="2" t="s">
-        <v>776</v>
+        <v>446</v>
       </c>
       <c r="CL1" s="2" t="s">
-        <v>777</v>
+        <v>447</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>778</v>
+        <v>448</v>
       </c>
       <c r="CN1" s="3" t="s">
-        <v>779</v>
+        <v>449</v>
       </c>
       <c r="CO1" s="3" t="s">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="CP1" s="3" t="s">
-        <v>781</v>
+        <v>451</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>782</v>
+        <v>452</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>783</v>
+        <v>453</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>784</v>
+        <v>454</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>785</v>
+        <v>455</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>786</v>
+        <v>456</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>787</v>
+        <v>457</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>788</v>
+        <v>458</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>789</v>
+        <v>459</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>790</v>
+        <v>460</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>791</v>
+        <v>461</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>792</v>
+        <v>462</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>793</v>
+        <v>463</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>794</v>
+        <v>464</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>795</v>
+        <v>465</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>796</v>
+        <v>466</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>797</v>
+        <v>467</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>798</v>
+        <v>468</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>799</v>
+        <v>469</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>801</v>
+        <v>471</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>802</v>
+        <v>472</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>803</v>
+        <v>473</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>804</v>
+        <v>474</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>805</v>
+        <v>475</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>806</v>
+        <v>476</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>807</v>
+        <v>477</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>808</v>
+        <v>478</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>809</v>
+        <v>479</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>810</v>
+        <v>480</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>812</v>
+        <v>482</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>813</v>
+        <v>483</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>814</v>
+        <v>484</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>815</v>
+        <v>485</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>816</v>
+        <v>486</v>
       </c>
       <c r="DZ1" s="2" t="s">
-        <v>817</v>
+        <v>487</v>
       </c>
       <c r="EA1" s="2" t="s">
-        <v>818</v>
+        <v>488</v>
       </c>
       <c r="EB1" s="2" t="s">
-        <v>819</v>
+        <v>489</v>
       </c>
       <c r="EC1" s="2" t="s">
-        <v>820</v>
+        <v>490</v>
       </c>
       <c r="ED1" s="2" t="s">
-        <v>821</v>
+        <v>491</v>
       </c>
       <c r="EE1" s="2" t="s">
-        <v>822</v>
+        <v>492</v>
       </c>
       <c r="EF1" s="2" t="s">
-        <v>823</v>
+        <v>493</v>
       </c>
       <c r="EG1" s="3" t="s">
-        <v>824</v>
+        <v>494</v>
       </c>
       <c r="EH1" s="3" t="s">
-        <v>825</v>
+        <v>495</v>
       </c>
       <c r="EI1" s="3" t="s">
-        <v>826</v>
+        <v>496</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>827</v>
+        <v>497</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>828</v>
+        <v>498</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>829</v>
+        <v>499</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>830</v>
+        <v>500</v>
       </c>
       <c r="EN1" s="1" t="s">
-        <v>831</v>
+        <v>501</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>832</v>
+        <v>502</v>
       </c>
       <c r="EP1" s="1" t="s">
-        <v>833</v>
+        <v>503</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>834</v>
+        <v>504</v>
       </c>
       <c r="ER1" s="1" t="s">
-        <v>835</v>
+        <v>505</v>
       </c>
       <c r="ES1" s="1" t="s">
-        <v>836</v>
+        <v>506</v>
       </c>
       <c r="ET1" s="1" t="s">
-        <v>837</v>
+        <v>507</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>838</v>
+        <v>508</v>
       </c>
       <c r="EV1" s="1" t="s">
-        <v>839</v>
+        <v>509</v>
       </c>
       <c r="EW1" s="1" t="s">
-        <v>840</v>
+        <v>510</v>
       </c>
       <c r="EX1" s="1" t="s">
-        <v>841</v>
+        <v>511</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>842</v>
+        <v>512</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>843</v>
+        <v>513</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>844</v>
+        <v>514</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>845</v>
+        <v>515</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>846</v>
+        <v>516</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>847</v>
+        <v>517</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>848</v>
+        <v>518</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>849</v>
+        <v>519</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>850</v>
+        <v>520</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>851</v>
+        <v>521</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>852</v>
+        <v>522</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>853</v>
+        <v>523</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>854</v>
+        <v>524</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>855</v>
+        <v>525</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>856</v>
+        <v>526</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>857</v>
+        <v>527</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>858</v>
+        <v>528</v>
       </c>
       <c r="FP1" s="2" t="s">
-        <v>859</v>
+        <v>529</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>860</v>
+        <v>530</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>861</v>
+        <v>531</v>
       </c>
       <c r="FS1" s="1" t="s">
-        <v>862</v>
+        <v>532</v>
       </c>
       <c r="FT1" s="1" t="s">
-        <v>863</v>
+        <v>533</v>
       </c>
       <c r="FU1" s="1" t="s">
-        <v>864</v>
+        <v>534</v>
       </c>
       <c r="FV1" s="1" t="s">
-        <v>865</v>
+        <v>535</v>
       </c>
       <c r="FW1" s="1" t="s">
-        <v>866</v>
+        <v>536</v>
       </c>
       <c r="FX1" s="1" t="s">
-        <v>867</v>
+        <v>537</v>
       </c>
       <c r="FY1" s="1" t="s">
-        <v>868</v>
+        <v>538</v>
       </c>
       <c r="FZ1" s="1" t="s">
-        <v>869</v>
+        <v>539</v>
       </c>
       <c r="GA1" s="1" t="s">
-        <v>870</v>
+        <v>540</v>
       </c>
       <c r="GB1" s="1" t="s">
-        <v>871</v>
+        <v>541</v>
       </c>
       <c r="GC1" s="1" t="s">
-        <v>872</v>
+        <v>542</v>
       </c>
       <c r="GD1" s="1" t="s">
-        <v>873</v>
+        <v>543</v>
       </c>
       <c r="GE1" s="1" t="s">
-        <v>874</v>
+        <v>544</v>
       </c>
       <c r="GF1" s="1" t="s">
-        <v>875</v>
+        <v>545</v>
       </c>
       <c r="GG1" s="1" t="s">
-        <v>876</v>
+        <v>546</v>
       </c>
       <c r="GH1" s="1" t="s">
-        <v>877</v>
+        <v>547</v>
       </c>
       <c r="GI1" s="1" t="s">
-        <v>878</v>
+        <v>548</v>
       </c>
       <c r="GJ1" s="1" t="s">
-        <v>879</v>
+        <v>549</v>
       </c>
       <c r="GK1" s="1" t="s">
-        <v>880</v>
+        <v>550</v>
       </c>
       <c r="GL1" s="1" t="s">
-        <v>881</v>
+        <v>551</v>
       </c>
       <c r="GM1" s="1" t="s">
-        <v>882</v>
+        <v>552</v>
       </c>
       <c r="GN1" s="1" t="s">
-        <v>883</v>
+        <v>553</v>
       </c>
       <c r="GO1" s="1" t="s">
-        <v>884</v>
+        <v>554</v>
       </c>
       <c r="GP1" s="1" t="s">
-        <v>885</v>
+        <v>555</v>
       </c>
       <c r="GQ1" s="1" t="s">
-        <v>886</v>
+        <v>556</v>
       </c>
       <c r="GR1" s="1" t="s">
-        <v>887</v>
+        <v>557</v>
       </c>
       <c r="GS1" s="1" t="s">
-        <v>888</v>
+        <v>558</v>
       </c>
       <c r="GT1" s="1" t="s">
-        <v>889</v>
+        <v>559</v>
       </c>
       <c r="GU1" s="1" t="s">
-        <v>890</v>
+        <v>560</v>
       </c>
       <c r="GV1" s="1" t="s">
-        <v>891</v>
+        <v>561</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>892</v>
+        <v>562</v>
       </c>
       <c r="GX1" s="1" t="s">
-        <v>893</v>
+        <v>563</v>
       </c>
       <c r="GY1" s="1" t="s">
-        <v>894</v>
+        <v>564</v>
       </c>
       <c r="GZ1" s="1" t="s">
-        <v>895</v>
+        <v>565</v>
       </c>
       <c r="HA1" s="1" t="s">
-        <v>896</v>
+        <v>566</v>
       </c>
       <c r="HB1" s="1" t="s">
-        <v>897</v>
+        <v>567</v>
       </c>
       <c r="HC1" s="1" t="s">
-        <v>898</v>
+        <v>568</v>
       </c>
       <c r="HD1" s="1" t="s">
-        <v>899</v>
+        <v>569</v>
       </c>
       <c r="HE1" s="1" t="s">
-        <v>900</v>
+        <v>570</v>
       </c>
       <c r="HF1" s="2" t="s">
-        <v>901</v>
+        <v>571</v>
       </c>
       <c r="HG1" s="1" t="s">
-        <v>902</v>
+        <v>572</v>
       </c>
       <c r="HH1" s="1" t="s">
-        <v>903</v>
+        <v>573</v>
       </c>
       <c r="HI1" s="1" t="s">
-        <v>904</v>
+        <v>574</v>
       </c>
       <c r="HJ1" s="1" t="s">
-        <v>905</v>
+        <v>575</v>
       </c>
       <c r="HK1" s="1" t="s">
-        <v>906</v>
+        <v>576</v>
       </c>
       <c r="HL1" s="1" t="s">
-        <v>907</v>
+        <v>577</v>
       </c>
       <c r="HM1" s="1" t="s">
-        <v>908</v>
+        <v>578</v>
       </c>
       <c r="HN1" s="1" t="s">
-        <v>909</v>
+        <v>579</v>
       </c>
       <c r="HO1" s="1" t="s">
-        <v>910</v>
+        <v>580</v>
       </c>
       <c r="HP1" s="1" t="s">
-        <v>911</v>
+        <v>581</v>
       </c>
       <c r="HQ1" s="1" t="s">
-        <v>912</v>
+        <v>582</v>
       </c>
       <c r="HR1" s="1" t="s">
-        <v>913</v>
+        <v>583</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>914</v>
+        <v>584</v>
       </c>
       <c r="HT1" s="1" t="s">
-        <v>915</v>
+        <v>585</v>
       </c>
       <c r="HU1" s="1" t="s">
-        <v>916</v>
+        <v>586</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>917</v>
+        <v>587</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>918</v>
+        <v>588</v>
       </c>
       <c r="HX1" s="1" t="s">
-        <v>919</v>
+        <v>589</v>
       </c>
       <c r="HY1" s="1" t="s">
-        <v>920</v>
+        <v>590</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>921</v>
+        <v>591</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>922</v>
+        <v>592</v>
       </c>
       <c r="IB1" s="1" t="s">
-        <v>923</v>
+        <v>593</v>
       </c>
       <c r="IC1" s="1" t="s">
-        <v>924</v>
+        <v>594</v>
       </c>
       <c r="ID1" s="1" t="s">
-        <v>925</v>
+        <v>595</v>
       </c>
       <c r="IE1" s="1" t="s">
-        <v>926</v>
+        <v>596</v>
       </c>
       <c r="IF1" s="1" t="s">
-        <v>927</v>
+        <v>597</v>
       </c>
       <c r="IG1" s="1" t="s">
-        <v>928</v>
+        <v>598</v>
       </c>
       <c r="IH1" s="1" t="s">
-        <v>929</v>
+        <v>599</v>
       </c>
       <c r="II1" s="1" t="s">
-        <v>930</v>
+        <v>600</v>
       </c>
       <c r="IJ1" s="1" t="s">
-        <v>931</v>
+        <v>601</v>
       </c>
       <c r="IK1" s="1" t="s">
-        <v>932</v>
+        <v>602</v>
       </c>
       <c r="IL1" s="1" t="s">
-        <v>933</v>
+        <v>603</v>
       </c>
       <c r="IM1" s="1" t="s">
-        <v>934</v>
+        <v>604</v>
       </c>
       <c r="IN1" s="1" t="s">
-        <v>935</v>
+        <v>605</v>
       </c>
       <c r="IO1" s="1" t="s">
-        <v>936</v>
+        <v>606</v>
       </c>
       <c r="IP1" s="1" t="s">
-        <v>937</v>
+        <v>607</v>
       </c>
       <c r="IQ1" s="1" t="s">
-        <v>938</v>
+        <v>608</v>
       </c>
       <c r="IR1" s="1" t="s">
-        <v>939</v>
+        <v>609</v>
       </c>
       <c r="IS1" s="1" t="s">
-        <v>940</v>
+        <v>610</v>
       </c>
       <c r="IT1" s="1" t="s">
-        <v>941</v>
+        <v>611</v>
       </c>
       <c r="IU1" s="1" t="s">
-        <v>942</v>
+        <v>612</v>
       </c>
       <c r="IV1" s="2" t="s">
-        <v>943</v>
+        <v>613</v>
       </c>
       <c r="IW1" s="1" t="s">
-        <v>944</v>
+        <v>614</v>
       </c>
       <c r="IX1" s="1" t="s">
-        <v>945</v>
+        <v>615</v>
       </c>
       <c r="IY1" s="1" t="s">
-        <v>946</v>
+        <v>616</v>
       </c>
       <c r="IZ1" s="1" t="s">
-        <v>947</v>
+        <v>617</v>
       </c>
       <c r="JA1" s="1" t="s">
-        <v>948</v>
+        <v>618</v>
       </c>
       <c r="JB1" s="1" t="s">
-        <v>949</v>
+        <v>619</v>
       </c>
       <c r="JC1" s="1" t="s">
-        <v>950</v>
+        <v>620</v>
       </c>
       <c r="JD1" s="1" t="s">
-        <v>951</v>
+        <v>621</v>
       </c>
       <c r="JE1" s="1" t="s">
-        <v>952</v>
+        <v>622</v>
       </c>
       <c r="JF1" s="1" t="s">
-        <v>953</v>
+        <v>623</v>
       </c>
       <c r="JG1" s="1" t="s">
-        <v>954</v>
+        <v>624</v>
       </c>
       <c r="JH1" s="1" t="s">
-        <v>955</v>
+        <v>625</v>
       </c>
       <c r="JI1" s="1" t="s">
-        <v>956</v>
+        <v>626</v>
       </c>
       <c r="JJ1" s="1" t="s">
-        <v>957</v>
+        <v>627</v>
       </c>
       <c r="JK1" s="1" t="s">
-        <v>958</v>
+        <v>628</v>
       </c>
       <c r="JL1" s="1" t="s">
-        <v>959</v>
+        <v>629</v>
       </c>
       <c r="JM1" s="1" t="s">
-        <v>960</v>
+        <v>630</v>
       </c>
       <c r="JN1" s="1" t="s">
-        <v>961</v>
+        <v>631</v>
       </c>
       <c r="JO1" s="1" t="s">
-        <v>962</v>
+        <v>632</v>
       </c>
       <c r="JP1" s="1" t="s">
-        <v>963</v>
+        <v>633</v>
       </c>
       <c r="JQ1" s="1" t="s">
-        <v>964</v>
+        <v>634</v>
       </c>
       <c r="JR1" s="1" t="s">
-        <v>965</v>
+        <v>635</v>
       </c>
       <c r="JS1" s="1" t="s">
-        <v>966</v>
+        <v>636</v>
       </c>
       <c r="JT1" s="1" t="s">
-        <v>967</v>
+        <v>637</v>
       </c>
       <c r="JU1" s="1" t="s">
-        <v>968</v>
+        <v>638</v>
       </c>
       <c r="JV1" s="1" t="s">
-        <v>969</v>
+        <v>639</v>
       </c>
       <c r="JW1" s="1" t="s">
-        <v>970</v>
+        <v>640</v>
       </c>
       <c r="JX1" s="1" t="s">
-        <v>971</v>
+        <v>641</v>
       </c>
       <c r="JY1" s="1" t="s">
-        <v>972</v>
+        <v>642</v>
       </c>
       <c r="JZ1" s="1" t="s">
-        <v>973</v>
+        <v>643</v>
       </c>
       <c r="KA1" s="1" t="s">
-        <v>974</v>
+        <v>644</v>
       </c>
       <c r="KB1" s="1" t="s">
-        <v>975</v>
+        <v>645</v>
       </c>
       <c r="KC1" s="1" t="s">
-        <v>976</v>
+        <v>646</v>
       </c>
       <c r="KD1" s="1" t="s">
-        <v>977</v>
+        <v>647</v>
       </c>
       <c r="KE1" s="1" t="s">
-        <v>978</v>
+        <v>648</v>
       </c>
       <c r="KF1" s="1" t="s">
-        <v>979</v>
+        <v>649</v>
       </c>
       <c r="KG1" s="1" t="s">
-        <v>980</v>
+        <v>650</v>
       </c>
       <c r="KH1" s="1" t="s">
-        <v>981</v>
+        <v>651</v>
       </c>
       <c r="KI1" s="2" t="s">
-        <v>982</v>
+        <v>652</v>
       </c>
       <c r="KJ1" s="1" t="s">
-        <v>983</v>
+        <v>653</v>
       </c>
       <c r="KK1" s="1" t="s">
-        <v>984</v>
+        <v>654</v>
       </c>
       <c r="KL1" s="1" t="s">
-        <v>985</v>
+        <v>655</v>
       </c>
       <c r="KM1" s="1" t="s">
-        <v>986</v>
+        <v>656</v>
       </c>
       <c r="KN1" s="1" t="s">
-        <v>987</v>
+        <v>657</v>
       </c>
       <c r="KO1" s="1" t="s">
-        <v>988</v>
+        <v>658</v>
       </c>
       <c r="KP1" s="1" t="s">
-        <v>989</v>
+        <v>659</v>
       </c>
       <c r="KQ1" s="1" t="s">
-        <v>990</v>
+        <v>660</v>
       </c>
       <c r="KR1" s="1" t="s">
-        <v>991</v>
+        <v>661</v>
       </c>
       <c r="KS1" s="1" t="s">
-        <v>992</v>
+        <v>662</v>
       </c>
       <c r="KT1" s="1" t="s">
-        <v>993</v>
+        <v>663</v>
       </c>
       <c r="KU1" s="1" t="s">
-        <v>994</v>
+        <v>664</v>
       </c>
       <c r="KV1" s="1" t="s">
-        <v>995</v>
+        <v>665</v>
       </c>
       <c r="KW1" s="1" t="s">
-        <v>996</v>
+        <v>666</v>
       </c>
       <c r="KX1" s="1" t="s">
-        <v>997</v>
+        <v>667</v>
       </c>
       <c r="KY1" s="1" t="s">
-        <v>998</v>
+        <v>668</v>
       </c>
       <c r="KZ1" s="1" t="s">
-        <v>999</v>
+        <v>669</v>
       </c>
       <c r="LA1" s="1" t="s">
-        <v>1000</v>
+        <v>670</v>
       </c>
       <c r="LB1" s="1" t="s">
-        <v>1001</v>
+        <v>671</v>
       </c>
       <c r="LC1" s="1" t="s">
-        <v>1002</v>
+        <v>672</v>
       </c>
       <c r="LD1" s="1" t="s">
-        <v>1003</v>
+        <v>673</v>
       </c>
       <c r="LE1" s="1" t="s">
-        <v>1004</v>
+        <v>674</v>
       </c>
       <c r="LF1" s="1" t="s">
-        <v>1005</v>
+        <v>675</v>
       </c>
       <c r="LG1" s="1" t="s">
-        <v>1006</v>
+        <v>676</v>
       </c>
       <c r="LH1" s="1" t="s">
-        <v>1007</v>
+        <v>677</v>
       </c>
       <c r="LI1" s="1" t="s">
-        <v>1008</v>
+        <v>678</v>
       </c>
       <c r="LJ1" s="1" t="s">
-        <v>1009</v>
+        <v>679</v>
       </c>
       <c r="LK1" s="1" t="s">
-        <v>1010</v>
+        <v>680</v>
       </c>
       <c r="LL1" s="1" t="s">
-        <v>1011</v>
+        <v>681</v>
       </c>
       <c r="LM1" s="1" t="s">
-        <v>1012</v>
+        <v>682</v>
       </c>
       <c r="LN1" s="1" t="s">
-        <v>1013</v>
+        <v>683</v>
       </c>
       <c r="LO1" s="1" t="s">
-        <v>1014</v>
+        <v>684</v>
       </c>
       <c r="LP1" s="1" t="s">
-        <v>1015</v>
+        <v>685</v>
       </c>
       <c r="LQ1" s="1" t="s">
-        <v>1016</v>
+        <v>686</v>
       </c>
       <c r="LR1" s="4" t="s">
-        <v>1017</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
